--- a/data/trans_dic/P12A1_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación &lt;16 años</t>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 59,3</t>
+          <t>0,54; 5,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 46,6</t>
+          <t>0,55; 6,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 73,81</t>
+          <t>0,52; 6,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 16,69</t>
+          <t>0,61; 6,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,72</t>
+          <t>0,42; 4,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,76</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 39,55</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 30,96</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 54,59</t>
+          <t>0,74; 3,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 3,22</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 3,03</t>
         </is>
       </c>
     </row>
@@ -742,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -752,37 +807,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 26,79</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,33</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 27,58</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 21,59</t>
+          <t>0,63; 6,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 21,33</t>
+          <t>0,57; 5,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 22,28</t>
+          <t>0,66; 6,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,65</t>
+          <t>0,53; 5,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 14,09</t>
+          <t>0,65; 4,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 3,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 4,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 3,28</t>
         </is>
       </c>
     </row>
@@ -857,42 +942,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>29,15%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,18</t>
+          <t>0,0; 63,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,62</t>
+          <t>0,0; 65,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 69,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 34,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 37,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,99</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 36,49</t>
+          <t>0,51; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 37,55</t>
+          <t>0,63; 12,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 47,74</t>
+          <t>0,91; 13,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 17,92</t>
+          <t>1,17; 16,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,57</t>
+          <t>0,71; 3,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 15,77</t>
+          <t>0,43; 3,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 23,0</t>
+          <t>0,62; 3,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 24,0</t>
+          <t>0,4; 2,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 35,45</t>
+          <t>0,82; 2,73</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 6,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 7,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 7,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación &lt;16 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9276</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7316</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7876</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12772</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3589</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16241</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10978</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14910</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2308; 23128</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2020; 22255</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1978; 24770</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3120; 33486</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2120; 20817</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13173</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14798</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12901</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6905; 32793</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3923; 25355</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4106; 28442</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4905; 32413</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2631</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11345</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9530</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14399</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7041</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11409</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12161</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15427</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13530</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13125</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2667; 28022</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1913; 19243</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2212; 21631</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2286; 23370</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5074; 33112</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1939; 21683</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3904; 27602</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4761; 27529</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19782</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19781</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 50162</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 55934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 82701</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 55287</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 62650</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 92278</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12329</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24302</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30146</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>45207</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18310</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10703</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12509</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11667</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30639</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42655</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56875</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4558; 29193</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4818; 93882</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7202; 110029</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12124; 167866</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7323; 36674</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3625; 25205</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5147; 27701</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4359; 27129</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15737; 52631</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14144; 103957</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17757; 118686</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>22232; 162574</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
